--- a/medicine/Sexualité et sexologie/Lorena_Berdún/Lorena_Berdún.xlsx
+++ b/medicine/Sexualité et sexologie/Lorena_Berdún/Lorena_Berdún.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lorena_Berd%C3%BAn</t>
+          <t>Lorena_Berdún</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorena Berdún Villegas, née le 20 novembre 1973 à Madrid, est une psychologue, sexologue, animatrice de radio, présentatrice de télévision et actrice espagnole.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lorena_Berd%C3%BAn</t>
+          <t>Lorena_Berdún</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant sa jeunesse, elle étudie la psychologie à l'Université autonome de Madrid, puis travaille bénévolement avec Juan Pablo Hernández dans un centre de conseil sexuel qui organise des discussions pour les lycées et les médias[1].
-Elle est diplômée de l'Université de La Laguna, située sur l'île de Tenerife[2].
-Animatrice de radio et de télévision
-Elle rejoint ensuite l'équipe de l'émission En tu casa o en la mía de Los 40 Principales, un programme radiophonique où elle donne des conseils aux personnes qui téléphonent à l'émission (1998 - 2002)[3].
-Elle présente plus tard plusieurs émissions de radio et télévision, comme Me lo dices o me lo cuentas (2002-2004, Telemadrid, ETB 2 et Canal Cosmopolitan) ou Dos rombos (TVE, 2004-2005)[4].
-À partir de l'automne de 2006, elle participe en tant que chroniqueuse au programme italien télévisé, Crozza Italia, à La 7, où elle donne des conseils sexuels sur l'éducation sexuelle[5].
-Comédienne
-En tant que comédienne, elle tourne dans le court-métrage Running Lorena de José Talavera, puis joue dans la pièce de théâtre Invierno bajo la mesa (adaptation de L'Hiver sous la table, de Roland Topor)[6],  et fait partie de la distribution de la série télévisée Con dos tacones, diffusée sur TVE, où elle joue le rôle de Cristina[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant sa jeunesse, elle étudie la psychologie à l'Université autonome de Madrid, puis travaille bénévolement avec Juan Pablo Hernández dans un centre de conseil sexuel qui organise des discussions pour les lycées et les médias.
+Elle est diplômée de l'Université de La Laguna, située sur l'île de Tenerife.
 </t>
         </is>
       </c>
@@ -531,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lorena_Berd%C3%BAn</t>
+          <t>Lorena_Berdún</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +554,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Animatrice de radio et de télévision</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle rejoint ensuite l'équipe de l'émission En tu casa o en la mía de Los 40 Principales, un programme radiophonique où elle donne des conseils aux personnes qui téléphonent à l'émission (1998 - 2002).
+Elle présente plus tard plusieurs émissions de radio et télévision, comme Me lo dices o me lo cuentas (2002-2004, Telemadrid, ETB 2 et Canal Cosmopolitan) ou Dos rombos (TVE, 2004-2005).
+À partir de l'automne de 2006, elle participe en tant que chroniqueuse au programme italien télévisé, Crozza Italia, à La 7, où elle donne des conseils sexuels sur l'éducation sexuelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lorena_Berdún</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lorena_Berd%C3%BAn</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Comédienne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En tant que comédienne, elle tourne dans le court-métrage Running Lorena de José Talavera, puis joue dans la pièce de théâtre Invierno bajo la mesa (adaptation de L'Hiver sous la table, de Roland Topor),  et fait partie de la distribution de la série télévisée Con dos tacones, diffusée sur TVE, où elle joue le rôle de Cristina.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lorena_Berdún</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lorena_Berd%C3%BAn</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(es) Lorena Berdún, En tu casa o en la mía. Todo lo que los jóvenes quieren saber para un sexo sin duda, El País Aguilar, 2000 (ISBN 84-030-9203-2)
 En tu casa o en la mía. Todo lo que los jóvenes quieren saber para un sexo sin duda. Ed: El País Aguilar (2000)  (ISBN 84-030-9203-2)
@@ -560,31 +646,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Lorena_Berd%C3%BAn</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lorena_Berdún</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lorena_Berd%C3%BAn</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Premio Ondas 2000 “Mejor Programa que destaque por su Innovación”, En tu casa o en la mía
 Premio Ondas 2003 “Mejor Programa que destaque por su Innovación” pour Me lo dices o me lo cuentas
